--- a/biology/Histoire de la zoologie et de la botanique/Robert_Kerr_(naturaliste)/Robert_Kerr_(naturaliste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Kerr_(naturaliste)/Robert_Kerr_(naturaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Kerr est un  naturaliste et un écrivain britannique, né le 20 octobre 1755 dans le Roxburghshire et mort le 11 octobre 1813 à Édimbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de joaillier, il étudie la médecine à l’université d’Édimbourg. Il exerce la chirurgie à l’Edinburgh Foundling Hospital. Il est l’auteur de traductions d’ouvrages scientifiques, comme le Traité élémentaire de chimie (1789) d’Antoine Lavoisier.
 En 1792, il fait paraître la première partie de The Animal Kingdom, une traduction du Systema Naturae de Carl von Linné ; bien que seuls les deux premiers volumes (sur les neuf prévus) aient vu le jour, cette œuvre est souvent citée dans les travaux de taxinomie zoologique.
